--- a/data/hotels_by_city/Dallas/Dallas_shard_721.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_721.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1398 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r581531178-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>30162</t>
+  </si>
+  <si>
+    <t>614380</t>
+  </si>
+  <si>
+    <t>581531178</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Love the friendly service</t>
+  </si>
+  <si>
+    <t>The service is great, friendly and the rooms are clean. I would recommend it to anyone I know. They are quite busy but always find a room for me. I make a monthly visit to see my husband and I have used then for a little more than a year MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The service is great, friendly and the rooms are clean. I would recommend it to anyone I know. They are quite busy but always find a room for me. I make a monthly visit to see my husband and I have used then for a little more than a year More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r564355463-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>564355463</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Great spur of the moment road trip. Accommodations were fine. Did not eat breakfast. Need larger coffee cups.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Great spur of the moment road trip. Accommodations were fine. Did not eat breakfast. Need larger coffee cups.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r561746727-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>561746727</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r533782598-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>533782598</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Higher price no rewards</t>
+  </si>
+  <si>
+    <t>Clerk tried to have us upgrade after we had made reservations and had a quote for a lower priced room. Also couldn't use reward points or get credit for the stay. Not happyMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Clerk tried to have us upgrade after we had made reservations and had a quote for a lower priced room. Also couldn't use reward points or get credit for the stay. Not happyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r529975053-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>529975053</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Not bad for an overnight stay</t>
+  </si>
+  <si>
+    <t>It's not a brand new property so there are some signs of wear.  But where it counts, cleanliness, comfort and value, it's a good place to stay.  It is literally in the middle of a RV dealership so it takes a little effort to find but well worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>It's not a brand new property so there are some signs of wear.  But where it counts, cleanliness, comfort and value, it's a good place to stay.  It is literally in the middle of a RV dealership so it takes a little effort to find but well worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r527837170-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>527837170</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Smelly, No AC, Not Friendly</t>
+  </si>
+  <si>
+    <t>Upon check in, they tried to make a copy of my debit card. To which I told them no way! Our AC in our room froze up overnight so we had no AC the 2nd day of our stay. The hair dryer wouldn't work because there was no power to the outlet. The lobby was disgustingly hot with the strong smell of curry throughout the hotel. The pool was closed by the city of alvarado, indefinitely.  It was not pleasant AT ALL!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Upon check in, they tried to make a copy of my debit card. To which I told them no way! Our AC in our room froze up overnight so we had no AC the 2nd day of our stay. The hair dryer wouldn't work because there was no power to the outlet. The lobby was disgustingly hot with the strong smell of curry throughout the hotel. The pool was closed by the city of alvarado, indefinitely.  It was not pleasant AT ALL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r525759033-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>525759033</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Adequate stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed in room 106 the night of 9/18/2017. The room is an accessible room with jacuzzi in the bedroom a bathtub in the bathroom with grab bars.  The jacuzzi does not have grab bars though.  The room has a king bed,microwave, refrigerator, and coffee maker and flat screen tv.  The bathroom has a raised toilet and has a bathtub with grab bars.  This room also connects to another room.  The stay was adequate. However there were some things that need to be addressed. 1. There is a red stain on the carpet by the step of the jacuzzi.2. There was no hair dryer 3. The sink leaked 4. The refrigerator needs to be cleaned better.Otherwise the room was big and spacious.  This property is pet friendly.  It is $10 dollars a day per pet if you tell them about the pet or $25 dollars a day per pet if you don't tell them.  Check in was fast and great.  It was adequate for a 1 night stay to get sleep.  I would return if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed in room 106 the night of 9/18/2017. The room is an accessible room with jacuzzi in the bedroom a bathtub in the bathroom with grab bars.  The jacuzzi does not have grab bars though.  The room has a king bed,microwave, refrigerator, and coffee maker and flat screen tv.  The bathroom has a raised toilet and has a bathtub with grab bars.  This room also connects to another room.  The stay was adequate. However there were some things that need to be addressed. 1. There is a red stain on the carpet by the step of the jacuzzi.2. There was no hair dryer 3. The sink leaked 4. The refrigerator needs to be cleaned better.Otherwise the room was big and spacious.  This property is pet friendly.  It is $10 dollars a day per pet if you tell them about the pet or $25 dollars a day per pet if you don't tell them.  Check in was fast and great.  It was adequate for a 1 night stay to get sleep.  I would return if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r522264455-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>522264455</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Evacuation stay</t>
+  </si>
+  <si>
+    <t>Will stay here again when we travel north. Very friendly and helpful. Thank you for Alvarado Super 8 for your kindness .</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r511167981-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>511167981</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>This is a quality hotel for a decent price, but the...</t>
+  </si>
+  <si>
+    <t>This is a quality hotel for a decent price, but the internet was slow and the lobby/hallways were hot and smelled funky. Also, the ice machines were all out of order except for the one down on the first floor. Nothing too bad, but there are better hotel values in better locations within 10 miles.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r501902707-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>501902707</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r494846001-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>494846001</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r492011540-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>492011540</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r483631283-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>483631283</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Texas Trip</t>
+  </si>
+  <si>
+    <t>We had a nice stay here . It's a good place for the price which was important to us for our long stay. You couldn't ask for a nicer staff . Everyone was always kind and very thoughtful.The only very bad thing we experienced was no hand rails at all in the shower. The soft water made this a very dangerous and I did fall.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r482647833-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>482647833</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r481964650-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>481964650</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Disapointed</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times and on my last stay the manager decided that he did not like the corporate discount I got through Wyndham so he called them to complain and came to my room and knocked on the door and handed me the phone to explain why I got a corporate discount. I thought that it was rude and petty since it was just a 5 dollar discount. But now he will lose much more than that because I will never return.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r478321426-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>478321426</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Very Nice People</t>
+  </si>
+  <si>
+    <t>Everything was nice except the smell strange smell Curry I think which was not pleasant to the nose.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was nice except the smell strange smell Curry I think which was not pleasant to the nose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r468671158-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>468671158</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r466532786-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>466532786</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>First impressions.</t>
+  </si>
+  <si>
+    <t>When we walked into lobby, it smelled bad. Don't what the smell was. The receptionists took long on the computer to book us in and give us our room keys. Chair in room was very dirty (looked as if someone threw up on it). Bed sheets had stains. Was so scared to sleep on bed because the uncleanliness. Never again Super8, sorry if you can't even have a clean hotel, then we won't be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r440997518-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>440997518</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>average room</t>
+  </si>
+  <si>
+    <t>Average room with below average cleanliness. No complaints really with the size of the room, there was more than enough for my son and I but I didn't think that the dippity doo that was on the headboard of both beds. I also wasn't fond of the cigarette smell that permeated throughout the halls on all 3 floors of the hotel. The complimentary breakfast left something to be desired too. We chose to have breakfast somewhere else rather than have anything other than the toast and part of a waffle for my son. The staff were very friendly and accommodating but I don't think we'll go back to this Super 8 due to the issues with the beds. It was tough to sleep after seeing that!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Average room with below average cleanliness. No complaints really with the size of the room, there was more than enough for my son and I but I didn't think that the dippity doo that was on the headboard of both beds. I also wasn't fond of the cigarette smell that permeated throughout the halls on all 3 floors of the hotel. The complimentary breakfast left something to be desired too. We chose to have breakfast somewhere else rather than have anything other than the toast and part of a waffle for my son. The staff were very friendly and accommodating but I don't think we'll go back to this Super 8 due to the issues with the beds. It was tough to sleep after seeing that!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r438619357-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>438619357</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>review of service and room</t>
+  </si>
+  <si>
+    <t>We were next door to purchase a motor home which is another story in itself as the folks at MHSRV did not advertise what the end product would be like. Totally dishonest in their presentation on line to us.  You can read my review of them on their website. We walked over from MHSRV and needed a room as we had no place to go. The clerk told us we could have a VIP room at the cost of $79.95 for the night so I told them I looked on line and you advertise $49.95 per night he said this is VIP room and much better then the other ones.  I said ok I was with my wife and wanted a nice room.  Paid and went up to the room as soon as we walked in my wife notices dead bugs on the floor and as I moved some of the furniture around found all kinds of dead bugs.  Went to open the window coverings and notices black mold growing in the corner of the window ledge.  I decided to find a maid to come and vacuum up the dead bugs.  This was done and we started to settle in.  Let me tell you this was not a VIP room.  There were no restaurants within walking distance so we called a pizza hut to deliver pizza to us.  The pizza arrived and we placed it on the small table that...We were next door to purchase a motor home which is another story in itself as the folks at MHSRV did not advertise what the end product would be like. Totally dishonest in their presentation on line to us.  You can read my review of them on their website. We walked over from MHSRV and needed a room as we had no place to go. The clerk told us we could have a VIP room at the cost of $79.95 for the night so I told them I looked on line and you advertise $49.95 per night he said this is VIP room and much better then the other ones.  I said ok I was with my wife and wanted a nice room.  Paid and went up to the room as soon as we walked in my wife notices dead bugs on the floor and as I moved some of the furniture around found all kinds of dead bugs.  Went to open the window coverings and notices black mold growing in the corner of the window ledge.  I decided to find a maid to come and vacuum up the dead bugs.  This was done and we started to settle in.  Let me tell you this was not a VIP room.  There were no restaurants within walking distance so we called a pizza hut to deliver pizza to us.  The pizza arrived and we placed it on the small table that was available and as we placed it on the table dead bugs fell from under the table.  I could go on but wont you get the drift.  Needless to say we did not get very much sleep that night.  We were glad morning came and a taxi came to pick us up to go to the airport.  I would not recommend this motel to anyone.  Dirty and nasty.  I;m sure they try but someone needs to tell the cleaning crew how to clean.  Would never stay in another Motel 6MoreShow less</t>
+  </si>
+  <si>
+    <t>We were next door to purchase a motor home which is another story in itself as the folks at MHSRV did not advertise what the end product would be like. Totally dishonest in their presentation on line to us.  You can read my review of them on their website. We walked over from MHSRV and needed a room as we had no place to go. The clerk told us we could have a VIP room at the cost of $79.95 for the night so I told them I looked on line and you advertise $49.95 per night he said this is VIP room and much better then the other ones.  I said ok I was with my wife and wanted a nice room.  Paid and went up to the room as soon as we walked in my wife notices dead bugs on the floor and as I moved some of the furniture around found all kinds of dead bugs.  Went to open the window coverings and notices black mold growing in the corner of the window ledge.  I decided to find a maid to come and vacuum up the dead bugs.  This was done and we started to settle in.  Let me tell you this was not a VIP room.  There were no restaurants within walking distance so we called a pizza hut to deliver pizza to us.  The pizza arrived and we placed it on the small table that...We were next door to purchase a motor home which is another story in itself as the folks at MHSRV did not advertise what the end product would be like. Totally dishonest in their presentation on line to us.  You can read my review of them on their website. We walked over from MHSRV and needed a room as we had no place to go. The clerk told us we could have a VIP room at the cost of $79.95 for the night so I told them I looked on line and you advertise $49.95 per night he said this is VIP room and much better then the other ones.  I said ok I was with my wife and wanted a nice room.  Paid and went up to the room as soon as we walked in my wife notices dead bugs on the floor and as I moved some of the furniture around found all kinds of dead bugs.  Went to open the window coverings and notices black mold growing in the corner of the window ledge.  I decided to find a maid to come and vacuum up the dead bugs.  This was done and we started to settle in.  Let me tell you this was not a VIP room.  There were no restaurants within walking distance so we called a pizza hut to deliver pizza to us.  The pizza arrived and we placed it on the small table that was available and as we placed it on the table dead bugs fell from under the table.  I could go on but wont you get the drift.  Needless to say we did not get very much sleep that night.  We were glad morning came and a taxi came to pick us up to go to the airport.  I would not recommend this motel to anyone.  Dirty and nasty.  I;m sure they try but someone needs to tell the cleaning crew how to clean.  Would never stay in another Motel 6More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r432258591-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>432258591</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great place to stay very clean and breakfast was good. Hotel manager was very helpful for area info the staff also worked around my schedule to clean my room at night since I slept during the day. Would definitely stay again MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay very clean and breakfast was good. Hotel manager was very helpful for area info the staff also worked around my schedule to clean my room at night since I slept during the day. Would definitely stay again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r420685652-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>420685652</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>5 star rating</t>
+  </si>
+  <si>
+    <t>Super 8 in Alvarado TX was very clean&amp; professionally run.  The manager &amp; staff are very helpful &amp; courteous &amp; go out their way to make your stay a pleasure to be there.  Will definitely stay there again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Super 8 in Alvarado TX was very clean&amp; professionally run.  The manager &amp; staff are very helpful &amp; courteous &amp; go out their way to make your stay a pleasure to be there.  Will definitely stay there again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r419234649-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>419234649</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Clean, Good Value</t>
+  </si>
+  <si>
+    <t>Good value, rooms and general common areas clean. Staff friendly, very conveniently located, was there to shop for RV, located in the middle of dealership-can't get closer than that. MoreShow less</t>
+  </si>
+  <si>
+    <t>Good value, rooms and general common areas clean. Staff friendly, very conveniently located, was there to shop for RV, located in the middle of dealership-can't get closer than that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r418067487-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>418067487</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r409935729-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>409935729</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Will never stay again</t>
+  </si>
+  <si>
+    <t>The whole hotel was hot including our room. There was a woman walking around half naked and my kids were with us. The food was stale and hard. Will never stay here again. Oh and there was kids running around makin a lot of noise and throwing things and seemed to belong to the guy at the front deskMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded September 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2016</t>
+  </si>
+  <si>
+    <t>The whole hotel was hot including our room. There was a woman walking around half naked and my kids were with us. The food was stale and hard. Will never stay here again. Oh and there was kids running around makin a lot of noise and throwing things and seemed to belong to the guy at the front deskMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r405784941-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>405784941</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Not Good</t>
+  </si>
+  <si>
+    <t>Stayed at this location in March with no issues.  This time, there were numerous issues starting with check in.  The only maid service came after 5:30 pm.  She said that she was only there for the towels and trash.  The manager wanted a cash payment because he said that we had to pay for my companion because when I reserved it did not have any question for the number of occupants.  Stay in hotels for work continuously, I will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this location in March with no issues.  This time, there were numerous issues starting with check in.  The only maid service came after 5:30 pm.  She said that she was only there for the towels and trash.  The manager wanted a cash payment because he said that we had to pay for my companion because when I reserved it did not have any question for the number of occupants.  Stay in hotels for work continuously, I will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r404870435-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>404870435</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay to Dallas Love airport</t>
+  </si>
+  <si>
+    <t>The room was clean with a very comfortable bed. The pool was refreshing after dinner. The breakfast was good- I like the Texas waffles. Check-in and check-out was fast. This is one of the cleanest Super 8 that I have stayed in. This is the second time I have stayed here and will continue to stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean with a very comfortable bed. The pool was refreshing after dinner. The breakfast was good- I like the Texas waffles. Check-in and check-out was fast. This is one of the cleanest Super 8 that I have stayed in. This is the second time I have stayed here and will continue to stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r399608202-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>399608202</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r399325178-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>399325178</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>My stay a super 8</t>
+  </si>
+  <si>
+    <t>I stayed here one night traveling back home to Corpus from Iowa and the front desk man was very polite and helpful. The room was clean  and got cold fast once i turned the ac on. The price was decent for one night. Thank you so much MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here one night traveling back home to Corpus from Iowa and the front desk man was very polite and helpful. The room was clean  and got cold fast once i turned the ac on. The price was decent for one night. Thank you so much More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r393224638-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>393224638</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>disapointed</t>
+  </si>
+  <si>
+    <t>The room lights were way too dim.The fridge was unplugged.  The toilet was %75 plugged up when I got the room. Every time I took a #2 I had to plunge it. They didn't want to give me towels to clean it up. I asked about a maintenance man and was told he only comes on Wednesday!  The third time I had to plunge the toilet I plunged and I plunged and I plunged until it finally opened up. I had water everywhere. I used up the towels they gave me and some of my room towels also. I had no more trouble out of the toilet.They did not offer to change rooms or give me a discount.I will never return to Super 8 in Alvarado, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room lights were way too dim.The fridge was unplugged.  The toilet was %75 plugged up when I got the room. Every time I took a #2 I had to plunge it. They didn't want to give me towels to clean it up. I asked about a maintenance man and was told he only comes on Wednesday!  The third time I had to plunge the toilet I plunged and I plunged and I plunged until it finally opened up. I had water everywhere. I used up the towels they gave me and some of my room towels also. I had no more trouble out of the toilet.They did not offer to change rooms or give me a discount.I will never return to Super 8 in Alvarado, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r382741735-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>382741735</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We came in a family group and required four rooms.  One member needed a handicapped accessible room. The gentleman at the desk was most accommodating and helpful. He even brought a bottle of fruit juice to that family member when the fridge in the lobby did not have any. Our rooms were very clean and quiet during the night. We were all very pleased even after arriving after 10 hours on the road and experiencing miles of road construction.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r375155588-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>375155588</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Super 8 tucked away</t>
+  </si>
+  <si>
+    <t>This super 8 motel is kinda tucked away and surrounded by an rv sales lot... Thought this was kinda of strange when I first pulled up, but appreciated it later on as the stay was a quiet and safe place to stay the night.. I even came back a second time during the week to catch my flight in Dallas... Rooms were clean, bed was comfortable and clean.. Bathroom is a lil small and the only negative experience I had there was the fact that the bathroom floors are slippery when you are wearing socks... Really slippery.. But other than that, the manager was nice and accommodating and will stop by here again if I am in the area... Did not have the breakfast either morning due to early departure MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This super 8 motel is kinda tucked away and surrounded by an rv sales lot... Thought this was kinda of strange when I first pulled up, but appreciated it later on as the stay was a quiet and safe place to stay the night.. I even came back a second time during the week to catch my flight in Dallas... Rooms were clean, bed was comfortable and clean.. Bathroom is a lil small and the only negative experience I had there was the fact that the bathroom floors are slippery when you are wearing socks... Really slippery.. But other than that, the manager was nice and accommodating and will stop by here again if I am in the area... Did not have the breakfast either morning due to early departure More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r374095789-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>374095789</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>budget, clean, but noisy</t>
+  </si>
+  <si>
+    <t>pro --  budget, cleancon -- noisy (bad plumbing noise from upstairs and poor quality refrigerator), terrible breakfast (poor quality and bad presentation, limited choice), smelly lobby (curry smell)i did not sleep until 5 am due to the noise being generated through the plumbing and the refrigerator motor sound.... i turned off the power on refrigerator... still the plumbing sound kept me awake...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r368321419-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>368321419</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>stayed there while the rv was being repaired</t>
+  </si>
+  <si>
+    <t>Had a nice room with a king sized bed, couch and 2 chairs. nice TV with cable and internet. They have a breakfast with hot waffles, cereal bar and cinnamon buns. We did not eat the breakfast because we bought are own stuff.There is a small pool. Very quiet inside with other guest couldn't hear the I 35 right outside.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r363851258-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>363851258</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Spring Break Week</t>
+  </si>
+  <si>
+    <t>We started staying here when they were the only hotel in town. Ha!Ha! There are plenty of other choices in town now.  The price is reasonable and the rooms are clean. Any time we have had an issue, the staff was quick to respond. The hotel is quite and conveniently accessible to I-35. Oh yeah, during the week that we were there, the hotel was receiving new mattress.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r363092609-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>363092609</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r353626432-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>353626432</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Best Super 8 I've Stayed In</t>
+  </si>
+  <si>
+    <t>With out question this is the Best Super 8 I have ever stayed in. Over the years I have stayed at more than 25 different Super 8's nation-wide. The Super 8 in Alvarado is hands down the best.As soon as you walk in to the hotel you think, "This isn't a Super 8, is it?" Its a good looking hotel from the start. The room is upscale as well and the bed, (the main reason I'm here, right?), is practically brand new. Upon check out I asked about that bed and was told, that as a personal practice they buy new mattresses on a regular basis to make sure their guest are impressed enough to come back. Well, guess what, I'll definitely coming back. The breakfast is a hot one, eggs, beacon, etc. Rare for a Super 8. If you are traveling on I-35 going south (about 6 mile) of Fort Worth you should spend the night there. Top tier hotel at a reasonable price. I'm not associated with the Super 8 chain or the folks that run this facility and I've never written a recommendation for any hotel before this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>With out question this is the Best Super 8 I have ever stayed in. Over the years I have stayed at more than 25 different Super 8's nation-wide. The Super 8 in Alvarado is hands down the best.As soon as you walk in to the hotel you think, "This isn't a Super 8, is it?" Its a good looking hotel from the start. The room is upscale as well and the bed, (the main reason I'm here, right?), is practically brand new. Upon check out I asked about that bed and was told, that as a personal practice they buy new mattresses on a regular basis to make sure their guest are impressed enough to come back. Well, guess what, I'll definitely coming back. The breakfast is a hot one, eggs, beacon, etc. Rare for a Super 8. If you are traveling on I-35 going south (about 6 mile) of Fort Worth you should spend the night there. Top tier hotel at a reasonable price. I'm not associated with the Super 8 chain or the folks that run this facility and I've never written a recommendation for any hotel before this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r351927327-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>351927327</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>Hotel was nice.  Staff was super friendly.  Only 2 small complaints...  No conditioner.  Would have prefered shamppo with conditioner to none at all.  I know that is silly but you would have to know my hair to understand..  The bed was really hard.  I didn't like that..  Over all this place was really clean amd well kept...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was nice.  Staff was super friendly.  Only 2 small complaints...  No conditioner.  Would have prefered shamppo with conditioner to none at all.  I know that is silly but you would have to know my hair to understand..  The bed was really hard.  I didn't like that..  Over all this place was really clean amd well kept...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r350824923-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>350824923</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded February 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r336533673-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>336533673</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r334122953-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>334122953</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>One of the best Super 8 in Wyndham chain.</t>
+  </si>
+  <si>
+    <t>I've stayed in several Wyndham hotel/motel over the years and I'm a member of Choice, Marriott, Best Western and LA Quinta. I must admit that this particular hotel rates 3 to 4 stars with all of them, large clean rooms, friendly and helpful staff close to metro areas (25 to 30 Mikes from Dallas) without the traffic hassle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed in several Wyndham hotel/motel over the years and I'm a member of Choice, Marriott, Best Western and LA Quinta. I must admit that this particular hotel rates 3 to 4 stars with all of them, large clean rooms, friendly and helpful staff close to metro areas (25 to 30 Mikes from Dallas) without the traffic hassle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r332182903-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>332182903</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Best hotel/motel in Johnson County!</t>
+  </si>
+  <si>
+    <t>I've stayed at almost every hotel in and surrounding Johnson County and I have to say hands down that Chen and his crew have a way of making your stay the utmost down to earth, not to mention most comfortable stay in town at aVery reasonable yet competative price.  The main thing is they put name with a face and do not forget ya even when ya haven't been there in a while. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded December 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at almost every hotel in and surrounding Johnson County and I have to say hands down that Chen and his crew have a way of making your stay the utmost down to earth, not to mention most comfortable stay in town at aVery reasonable yet competative price.  The main thing is they put name with a face and do not forget ya even when ya haven't been there in a while. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r314795692-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>314795692</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Totally pleased</t>
+  </si>
+  <si>
+    <t>Madison is busy and the convenience to and from the capitol is easy and direct.  The staff has taken good care all three of my trips and I will continue to use Super 8MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Madison is busy and the convenience to and from the capitol is easy and direct.  The staff has taken good care all three of my trips and I will continue to use Super 8More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r312403761-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>312403761</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Do not enter</t>
+  </si>
+  <si>
+    <t>At first I had made my reservation for 2 adults 2 people, but my mom ended coming along. so when the front desk guy saw that, he immediately required us to pay extra, that was fair. But at the time of check out he wanted to charge me for an additional person that did not exist, he kept insisting till he really ticked me off. I then talked to another lady who was very nice and apologetic. Unfortunately I will not be returning, and its very unfortunate that the good people have to pay for those that one that seems very greedy and wanting to overcharge for everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>At first I had made my reservation for 2 adults 2 people, but my mom ended coming along. so when the front desk guy saw that, he immediately required us to pay extra, that was fair. But at the time of check out he wanted to charge me for an additional person that did not exist, he kept insisting till he really ticked me off. I then talked to another lady who was very nice and apologetic. Unfortunately I will not be returning, and its very unfortunate that the good people have to pay for those that one that seems very greedy and wanting to overcharge for everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r311433992-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>311433992</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several time in the past...</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several time in the past several years.  The condition and cleanliness was a real disappointment this time.  We will not be staying there on our next trip to Overland Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several time in the past several years.  The condition and cleanliness was a real disappointment this time.  We will not be staying there on our next trip to Overland Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r282739421-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>282739421</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Chen J, Manager at Super 8 Alvarado, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r280716553-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>280716553</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>DON'T STAY</t>
+  </si>
+  <si>
+    <t>Check in took approx. 30 minutes, lady customer service was nice and tried to help but short elderly man came out, was miffed at rooms booked using Go Fast program saying rate too low. Lady had to explain the program to him.  Came in from out of town to celebrate birthday and was charged $20 extra PER ROOM to check in 1.5 hours early and the rooms were ready and sitting there.  Roach on daughter's door which she exterminated.  Check out fast, younger male was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in took approx. 30 minutes, lady customer service was nice and tried to help but short elderly man came out, was miffed at rooms booked using Go Fast program saying rate too low. Lady had to explain the program to him.  Came in from out of town to celebrate birthday and was charged $20 extra PER ROOM to check in 1.5 hours early and the rooms were ready and sitting there.  Roach on daughter's door which she exterminated.  Check out fast, younger male was pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r276068794-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>276068794</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Dampness</t>
+  </si>
+  <si>
+    <t>Our room was very damp. Nothing felt dry. Toilet made very loud sound when flushed. Sounded like a boat whistle. Bathtub didn't have enough non slip strips so was very slippery. Mentioned these issues at check out. The gentleman said he made note of them. Internet was very week. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Our room was very damp. Nothing felt dry. Toilet made very loud sound when flushed. Sounded like a boat whistle. Bathtub didn't have enough non slip strips so was very slippery. Mentioned these issues at check out. The gentleman said he made note of them. Internet was very week. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r270857039-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>270857039</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This is a nice place relative to most I've stayed at. The service is good, the room was clean and very nice. The area is very safe. I would prefer a hotel like this at every stop and that's why I give a high rating. They have a fitness room although they need to fix the treadmill.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r269900358-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>269900358</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r267101390-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>267101390</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Tried to double our nightly rate</t>
+  </si>
+  <si>
+    <t>The motel itself was adequate; the breakfast options were limited but there was enough to get you ready for the day. We were in a group that had reserved 5 rooms for the weekend of April 17-19, 2015. They didn't have enough towels in some of the rooms, and when we asked for more, they were out (maybe they hadn't done the laundry yet). The issue I had with this motel is when we checked in, the front desk tried to charge us twice the rate we were quoted online! We had reserved 4 of the rooms online, for a rate of about $65 a day, but at check-in, the front desk said the rate was about $130. After several minutes of "bargaining", we did get the rooms for the $65 rate, but we observed the front desk trying this same strategy on other customers as well. VERY unprofessional, in my opinion!MoreShow less</t>
+  </si>
+  <si>
+    <t>The motel itself was adequate; the breakfast options were limited but there was enough to get you ready for the day. We were in a group that had reserved 5 rooms for the weekend of April 17-19, 2015. They didn't have enough towels in some of the rooms, and when we asked for more, they were out (maybe they hadn't done the laundry yet). The issue I had with this motel is when we checked in, the front desk tried to charge us twice the rate we were quoted online! We had reserved 4 of the rooms online, for a rate of about $65 a day, but at check-in, the front desk said the rate was about $130. After several minutes of "bargaining", we did get the rooms for the $65 rate, but we observed the front desk trying this same strategy on other customers as well. VERY unprofessional, in my opinion!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r258482499-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>258482499</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r235966435-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>235966435</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r235077612-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>235077612</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Rock hard bed</t>
+  </si>
+  <si>
+    <t>Service was poor, although there were not many people staying, I was put on the third floor, breakfast was a joke, the only hot thing was the gravy for biscuits &amp; gravy, the bed was rock hard</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r225167340-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>225167340</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r223963799-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>223963799</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r221606771-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>221606771</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>better than other super 8's</t>
+  </si>
+  <si>
+    <t>They have inside corridoors which is perfect for me. The rooms were pretty nice (I stayed in a king suite) I had plenty of room, it was very clean and the furniture was also nice. The breakfast was just OK, not a lot of selection, but it was all fresh. I would stay at this Super 8 again. The only draw backs were that as usually not enough towels and they had no kleenx in the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r211288659-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>211288659</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r210481989-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>210481989</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was okay but service to the room was poor.  Clean linens 1 time in 4 days, trash emptied 1 time, no breakfast any day, Conflicting information from Staff regarding cleaning. I will not be staying at this Super 8 again.      </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r188916382-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>188916382</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Why would they send a 65+ couple to the 3rd floor when...</t>
+  </si>
+  <si>
+    <t>Why would they send a 65+ couple to the 3rd floor when there were obviously lower level rooms available.  The 2 other senior couples we met at breakfast were very enjoyable and friendly, making the stay memorable.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r181428147-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>181428147</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r180054901-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>180054901</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Ok for 1 night!</t>
+  </si>
+  <si>
+    <t>Price was good, location was perfect, right next door to Motor Home Specialist which was our destination, but this hotel needs to update their mattresses!!  The Staff was nice but the bed was terrible.  Felt like the mattress should have been changed years ago!  It was clean and everything worked.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r178346995-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>178346995</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r168706535-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>168706535</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r167687705-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>167687705</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r167009360-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>167009360</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r162214157-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>162214157</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Late night stop after a long day. The manager was very...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Late night stop after a long day. The manager was very courteous and helpful. The room was pleasant, quiet and clean. All that one could ask for. The breakfast was okay as a starter for the day. The coffee was good, the pastries fresh and good OJ. </t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r160940855-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>160940855</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Yes, maybe</t>
+  </si>
+  <si>
+    <t>Hard bed and flat pillows overshadowed the spacious, clean room.Picked this hotel because of a good price on Hotels.com while visiting family in the area.  Seeing it was easy, getting to it was a little harder.  Wednesday night, not very busy. Lawn needed mowing. Greeted at the front by the manager Chen and a very strong smell of curry.  Check in was fast and easy, lobby was clean, room was easy to find. clean and free of odors.  King size bed and a spacious room with plenty of space to maneuver about. TV was a 3:4 aspect so most of the channels were letterboxed.  Did not use the shower.  Bed was very stiff to the point of being too hard - and I camp a lot.  Pillows very flat and I really could have used another one.  I ended up having to fold mine in half to make a satisfactory size.  Did not try the shower or breakfast.Don't know if would return to this property or not.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hard bed and flat pillows overshadowed the spacious, clean room.Picked this hotel because of a good price on Hotels.com while visiting family in the area.  Seeing it was easy, getting to it was a little harder.  Wednesday night, not very busy. Lawn needed mowing. Greeted at the front by the manager Chen and a very strong smell of curry.  Check in was fast and easy, lobby was clean, room was easy to find. clean and free of odors.  King size bed and a spacious room with plenty of space to maneuver about. TV was a 3:4 aspect so most of the channels were letterboxed.  Did not use the shower.  Bed was very stiff to the point of being too hard - and I camp a lot.  Pillows very flat and I really could have used another one.  I ended up having to fold mine in half to make a satisfactory size.  Did not try the shower or breakfast.Don't know if would return to this property or not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r157977725-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>157977725</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r154310025-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>154310025</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r153706096-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>153706096</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>beds need upgraded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beds are unsatisfactory  out of date and to soft and could feel the springs .      The management  is charging three dollars to send the first fax and two dollars for each additional page not acceptable . There is a comfort Inn around the corner when i am in the area again i will stay there  with them there should be no charge for faxes if i stay  with you .   Thanks for your time </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r145354255-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>145354255</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>So Close Yet So Far</t>
+  </si>
+  <si>
+    <t>I wanted to give this place four dots but I just could not. I am an extensive business traveler and I know of what I speak. The most important part of a hotel stay, aside from cleanliness, is the comfort of the bed and the sleep quality. The mattresses were of such a poor quality and so uncomfortable I was actually in pain when I woke up. My back and my hip bones ached. It was really as though I were sleeping on a box springs and not a mattress at all. The mattress creaked when I sat on it and I could feel every spring.  These were the thinnest mattresses I have ever seen.  Even the pillows were thin and offered no real head and neck support even when folded over and there were only two pillows on the bed. Three is a minimum and it should be four to five. Management really went Chinese cheap o on these things. Everything else about this hotel was nice. Its a newer property so everything about it is in good shape. Ample parking, restaurants nearby, free breakfast, and very nice hotel staff. The price was also very good. But all of that does not matter if you leave more tired than when you arrived. My message to management is to dish out the money and get some high quality mattresses and pillows. I am telling you this will come back to...I wanted to give this place four dots but I just could not. I am an extensive business traveler and I know of what I speak. The most important part of a hotel stay, aside from cleanliness, is the comfort of the bed and the sleep quality. The mattresses were of such a poor quality and so uncomfortable I was actually in pain when I woke up. My back and my hip bones ached. It was really as though I were sleeping on a box springs and not a mattress at all. The mattress creaked when I sat on it and I could feel every spring.  These were the thinnest mattresses I have ever seen.  Even the pillows were thin and offered no real head and neck support even when folded over and there were only two pillows on the bed. Three is a minimum and it should be four to five. Management really went Chinese cheap o on these things. Everything else about this hotel was nice. Its a newer property so everything about it is in good shape. Ample parking, restaurants nearby, free breakfast, and very nice hotel staff. The price was also very good. But all of that does not matter if you leave more tired than when you arrived. My message to management is to dish out the money and get some high quality mattresses and pillows. I am telling you this will come back to bite you if you do not. My message to travelers is to pass and stay somewhere else until they get their act together.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I wanted to give this place four dots but I just could not. I am an extensive business traveler and I know of what I speak. The most important part of a hotel stay, aside from cleanliness, is the comfort of the bed and the sleep quality. The mattresses were of such a poor quality and so uncomfortable I was actually in pain when I woke up. My back and my hip bones ached. It was really as though I were sleeping on a box springs and not a mattress at all. The mattress creaked when I sat on it and I could feel every spring.  These were the thinnest mattresses I have ever seen.  Even the pillows were thin and offered no real head and neck support even when folded over and there were only two pillows on the bed. Three is a minimum and it should be four to five. Management really went Chinese cheap o on these things. Everything else about this hotel was nice. Its a newer property so everything about it is in good shape. Ample parking, restaurants nearby, free breakfast, and very nice hotel staff. The price was also very good. But all of that does not matter if you leave more tired than when you arrived. My message to management is to dish out the money and get some high quality mattresses and pillows. I am telling you this will come back to...I wanted to give this place four dots but I just could not. I am an extensive business traveler and I know of what I speak. The most important part of a hotel stay, aside from cleanliness, is the comfort of the bed and the sleep quality. The mattresses were of such a poor quality and so uncomfortable I was actually in pain when I woke up. My back and my hip bones ached. It was really as though I were sleeping on a box springs and not a mattress at all. The mattress creaked when I sat on it and I could feel every spring.  These were the thinnest mattresses I have ever seen.  Even the pillows were thin and offered no real head and neck support even when folded over and there were only two pillows on the bed. Three is a minimum and it should be four to five. Management really went Chinese cheap o on these things. Everything else about this hotel was nice. Its a newer property so everything about it is in good shape. Ample parking, restaurants nearby, free breakfast, and very nice hotel staff. The price was also very good. But all of that does not matter if you leave more tired than when you arrived. My message to management is to dish out the money and get some high quality mattresses and pillows. I am telling you this will come back to bite you if you do not. My message to travelers is to pass and stay somewhere else until they get their act together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r91108548-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>91108548</t>
+  </si>
+  <si>
+    <t>12/30/2010</t>
+  </si>
+  <si>
+    <t>a critical traveler finds a flawless hotel! unbelievable! still stunned!</t>
+  </si>
+  <si>
+    <t>I travel for a living. i stay in over 40 hotels a year. from 1 star to 4 stars. this super 8 is flawless. i cannot find one thing that was wrong. i just wanted to see one thing wrong to feel normal! the staff, cleanliness, i mean everything is flawless! towels are generous size. shower sprays a correct amount of water. not even one hole in the shower head is clogged! yes! i looked! let's look under the mattress! it's perfectly clean! lets take off the pillow covers! perfect. no stains! let's test all the wall outlets plug tension. all tight! you dont need to worry about the generous wall outlets being loose when you're charging your cell or your laptop. btw. wi-fi is free and fast. i tried the wi-fi in the morning and in the evening. still lighting fast at all hours. there is also a public computer for guest to use in the Free breakfast room. this is much better value than any 4 star hotel i stayed at. to name them, Hyatt regency, Hilton, Marriot and rennaisance. and Im saving over $100 a night and im getting 4 star quality!  those other 4 stars charge $9.95-$12.95 per day for internet. there is no charge at this super 8 or any Super 8! If all Super 8 were like this. all hotels will go out of business. if your in the fort worth area, i reccommend...I travel for a living. i stay in over 40 hotels a year. from 1 star to 4 stars. this super 8 is flawless. i cannot find one thing that was wrong. i just wanted to see one thing wrong to feel normal! the staff, cleanliness, i mean everything is flawless! towels are generous size. shower sprays a correct amount of water. not even one hole in the shower head is clogged! yes! i looked! let's look under the mattress! it's perfectly clean! lets take off the pillow covers! perfect. no stains! let's test all the wall outlets plug tension. all tight! you dont need to worry about the generous wall outlets being loose when you're charging your cell or your laptop. btw. wi-fi is free and fast. i tried the wi-fi in the morning and in the evening. still lighting fast at all hours. there is also a public computer for guest to use in the Free breakfast room. this is much better value than any 4 star hotel i stayed at. to name them, Hyatt regency, Hilton, Marriot and rennaisance. and Im saving over $100 a night and im getting 4 star quality!  those other 4 stars charge $9.95-$12.95 per day for internet. there is no charge at this super 8 or any Super 8! If all Super 8 were like this. all hotels will go out of business. if your in the fort worth area, i reccommend your drive 17 miles south and stay at this Super 8.it's on I-35w. and the girl working in the evening was super cute! and for those woman who think they are clean. you come to this super 8 and take a look. I dont think your own place is as clean as this super 8!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>super8alvarado, Manager at Super 8 Alvarado, responded to this reviewResponded January 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2011</t>
+  </si>
+  <si>
+    <t>I travel for a living. i stay in over 40 hotels a year. from 1 star to 4 stars. this super 8 is flawless. i cannot find one thing that was wrong. i just wanted to see one thing wrong to feel normal! the staff, cleanliness, i mean everything is flawless! towels are generous size. shower sprays a correct amount of water. not even one hole in the shower head is clogged! yes! i looked! let's look under the mattress! it's perfectly clean! lets take off the pillow covers! perfect. no stains! let's test all the wall outlets plug tension. all tight! you dont need to worry about the generous wall outlets being loose when you're charging your cell or your laptop. btw. wi-fi is free and fast. i tried the wi-fi in the morning and in the evening. still lighting fast at all hours. there is also a public computer for guest to use in the Free breakfast room. this is much better value than any 4 star hotel i stayed at. to name them, Hyatt regency, Hilton, Marriot and rennaisance. and Im saving over $100 a night and im getting 4 star quality!  those other 4 stars charge $9.95-$12.95 per day for internet. there is no charge at this super 8 or any Super 8! If all Super 8 were like this. all hotels will go out of business. if your in the fort worth area, i reccommend...I travel for a living. i stay in over 40 hotels a year. from 1 star to 4 stars. this super 8 is flawless. i cannot find one thing that was wrong. i just wanted to see one thing wrong to feel normal! the staff, cleanliness, i mean everything is flawless! towels are generous size. shower sprays a correct amount of water. not even one hole in the shower head is clogged! yes! i looked! let's look under the mattress! it's perfectly clean! lets take off the pillow covers! perfect. no stains! let's test all the wall outlets plug tension. all tight! you dont need to worry about the generous wall outlets being loose when you're charging your cell or your laptop. btw. wi-fi is free and fast. i tried the wi-fi in the morning and in the evening. still lighting fast at all hours. there is also a public computer for guest to use in the Free breakfast room. this is much better value than any 4 star hotel i stayed at. to name them, Hyatt regency, Hilton, Marriot and rennaisance. and Im saving over $100 a night and im getting 4 star quality!  those other 4 stars charge $9.95-$12.95 per day for internet. there is no charge at this super 8 or any Super 8! If all Super 8 were like this. all hotels will go out of business. if your in the fort worth area, i reccommend your drive 17 miles south and stay at this Super 8.it's on I-35w. and the girl working in the evening was super cute! and for those woman who think they are clean. you come to this super 8 and take a look. I dont think your own place is as clean as this super 8!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r76747092-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>76747092</t>
+  </si>
+  <si>
+    <t>08/24/2010</t>
+  </si>
+  <si>
+    <t>top notch staff, service, cleanliness, large rooms, great rates, great breakfasts</t>
+  </si>
+  <si>
+    <t>my title says it all...more bang for the buck!  Great staff, service, cleanliness, large rooms, great breakfasts.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r71170115-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>71170115</t>
+  </si>
+  <si>
+    <t>07/16/2010</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this Super 8 location for 4 days. And it was absolutly great. We were on the 3rd floor, very quiet. It was 4th of July and i thought it might be loud, but it was the oppsite.Breakfast was good,free newspaper to read at the pool. The only thing i would ask to improve is the pool and hot spa. Great area , everything is near that you need. We will stay there again when visiting Alavarado</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r49486560-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>49486560</t>
+  </si>
+  <si>
+    <t>11/18/2009</t>
+  </si>
+  <si>
+    <t>We have found the place to stay when we visit the Metroplex!</t>
+  </si>
+  <si>
+    <t>We stay at a lot of Super 8s.  This by far beats any we've visited, no to mention other, much more expensive places.  Breakfast was great, staff was extremely friendly.  We'll be back.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r40070847-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>40070847</t>
+  </si>
+  <si>
+    <t>09/07/2009</t>
+  </si>
+  <si>
+    <t>Very friendly staff and clean place!</t>
+  </si>
+  <si>
+    <t>We will be staying here again.  The hotel was very clean and quiet!  The rooms are very large rooms and the swimming area was very clean as well.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r40009450-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>40009450</t>
+  </si>
+  <si>
+    <t>Leaves much to be desired.</t>
+  </si>
+  <si>
+    <t>My boyfriend and I came here to get away for a night. The one thing we wanted was to be able to sit in a hot tub for a while and relax. We called beforehand to make sure one would be available and then made a reservation. When we went to the pool area we found that the hot tub was green and slimy. Another guest had mentioned that she complained about it so we mentioned it to the front desk. The next morning it still had not been cleaned. The bed was in terrible shape. I woke up stiff and with a terrible backache.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r14084512-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>14084512</t>
+  </si>
+  <si>
+    <t>03/05/2008</t>
+  </si>
+  <si>
+    <t>Great staff, very helpful!</t>
+  </si>
+  <si>
+    <t>I had a problem with my credit card going through.  The staff was very understanding and patient as I resolved what could have been a very embarrising situation.  They were very nice and the rooms were very clean.  Breakfast was also very satisfying!  Thanks again Super 8 Alvarado!</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r14072391-Super_8_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>14072391</t>
+  </si>
+  <si>
+    <t>Great Place to Stay! Fantastic Breakfast</t>
+  </si>
+  <si>
+    <t>This is one of the nicest Super 8's you'll ever see! :) Definitely a must visit :)</t>
+  </si>
+  <si>
+    <t>February 2008</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2037,5258 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>172</v>
+      </c>
+      <c r="X23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>172</v>
+      </c>
+      <c r="X24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>172</v>
+      </c>
+      <c r="X25" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>197</v>
+      </c>
+      <c r="X26" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>196</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>197</v>
+      </c>
+      <c r="X27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>172</v>
+      </c>
+      <c r="X28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>172</v>
+      </c>
+      <c r="X29" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>172</v>
+      </c>
+      <c r="X30" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>251</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>257</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>266</v>
+      </c>
+      <c r="X38" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>274</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>275</v>
+      </c>
+      <c r="X39" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>274</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>281</v>
+      </c>
+      <c r="X40" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>286</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>287</v>
+      </c>
+      <c r="X41" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>286</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>294</v>
+      </c>
+      <c r="X42" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" t="s">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s">
+        <v>301</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>302</v>
+      </c>
+      <c r="X43" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>311</v>
+      </c>
+      <c r="X44" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>310</v>
+      </c>
+      <c r="O45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>319</v>
+      </c>
+      <c r="X45" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>323</v>
+      </c>
+      <c r="J46" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>319</v>
+      </c>
+      <c r="X46" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>332</v>
+      </c>
+      <c r="X47" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>331</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>332</v>
+      </c>
+      <c r="X48" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>319</v>
+      </c>
+      <c r="X49" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K50" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>351</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>345</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>353</v>
+      </c>
+      <c r="J51" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>360</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>365</v>
+      </c>
+      <c r="O53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>367</v>
+      </c>
+      <c r="J54" t="s">
+        <v>368</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J55" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>369</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>376</v>
+      </c>
+      <c r="J56" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>378</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>380</v>
+      </c>
+      <c r="J57" t="s">
+        <v>381</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>378</v>
+      </c>
+      <c r="O57" t="s">
+        <v>93</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>382</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>383</v>
+      </c>
+      <c r="J58" t="s">
+        <v>384</v>
+      </c>
+      <c r="K58" t="s">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s">
+        <v>386</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>378</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>390</v>
+      </c>
+      <c r="O59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>392</v>
+      </c>
+      <c r="J60" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" t="s">
+        <v>394</v>
+      </c>
+      <c r="L60" t="s">
+        <v>395</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>396</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" t="s">
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" t="s">
+        <v>405</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>406</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" t="s">
+        <v>409</v>
+      </c>
+      <c r="K63" t="s">
+        <v>410</v>
+      </c>
+      <c r="L63" t="s">
+        <v>411</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>406</v>
+      </c>
+      <c r="O63" t="s">
+        <v>93</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>413</v>
+      </c>
+      <c r="J64" t="s">
+        <v>414</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>415</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>416</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>417</v>
+      </c>
+      <c r="J65" t="s">
+        <v>418</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>419</v>
+      </c>
+      <c r="O65" t="s">
+        <v>93</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>420</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>421</v>
+      </c>
+      <c r="J66" t="s">
+        <v>422</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>69</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>419</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>424</v>
+      </c>
+      <c r="J67" t="s">
+        <v>425</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>419</v>
+      </c>
+      <c r="O67" t="s">
+        <v>93</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>426</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>427</v>
+      </c>
+      <c r="J68" t="s">
+        <v>428</v>
+      </c>
+      <c r="K68" t="s">
+        <v>429</v>
+      </c>
+      <c r="L68" t="s">
+        <v>430</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>431</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>432</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>433</v>
+      </c>
+      <c r="J69" t="s">
+        <v>434</v>
+      </c>
+      <c r="K69" t="s">
+        <v>435</v>
+      </c>
+      <c r="L69" t="s">
+        <v>436</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>431</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>438</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>439</v>
+      </c>
+      <c r="J70" t="s">
+        <v>440</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>441</v>
+      </c>
+      <c r="O70" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>443</v>
+      </c>
+      <c r="J71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>447</v>
+      </c>
+      <c r="J72" t="s">
+        <v>448</v>
+      </c>
+      <c r="K72" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" t="s">
+        <v>450</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>451</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>452</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>453</v>
+      </c>
+      <c r="J73" t="s">
+        <v>454</v>
+      </c>
+      <c r="K73" t="s">
+        <v>455</v>
+      </c>
+      <c r="L73" t="s">
+        <v>456</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>457</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>459</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>460</v>
+      </c>
+      <c r="J74" t="s">
+        <v>461</v>
+      </c>
+      <c r="K74" t="s">
+        <v>462</v>
+      </c>
+      <c r="L74" t="s">
+        <v>463</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>464</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>465</v>
+      </c>
+      <c r="X74" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>468</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>469</v>
+      </c>
+      <c r="J75" t="s">
+        <v>470</v>
+      </c>
+      <c r="K75" t="s">
+        <v>471</v>
+      </c>
+      <c r="L75" t="s">
+        <v>472</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>473</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>474</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>475</v>
+      </c>
+      <c r="J76" t="s">
+        <v>476</v>
+      </c>
+      <c r="K76" t="s">
+        <v>477</v>
+      </c>
+      <c r="L76" t="s">
+        <v>478</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>479</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>480</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>481</v>
+      </c>
+      <c r="J77" t="s">
+        <v>482</v>
+      </c>
+      <c r="K77" t="s">
+        <v>483</v>
+      </c>
+      <c r="L77" t="s">
+        <v>484</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>485</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>486</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>487</v>
+      </c>
+      <c r="J78" t="s">
+        <v>488</v>
+      </c>
+      <c r="K78" t="s">
+        <v>489</v>
+      </c>
+      <c r="L78" t="s">
+        <v>490</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>491</v>
+      </c>
+      <c r="O78" t="s">
+        <v>93</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>492</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>493</v>
+      </c>
+      <c r="J79" t="s">
+        <v>488</v>
+      </c>
+      <c r="K79" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>491</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>496</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>497</v>
+      </c>
+      <c r="J80" t="s">
+        <v>498</v>
+      </c>
+      <c r="K80" t="s">
+        <v>499</v>
+      </c>
+      <c r="L80" t="s">
+        <v>500</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>501</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54550</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>502</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>503</v>
+      </c>
+      <c r="J81" t="s">
+        <v>498</v>
+      </c>
+      <c r="K81" t="s">
+        <v>504</v>
+      </c>
+      <c r="L81" t="s">
+        <v>505</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>506</v>
+      </c>
+      <c r="O81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_721.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_721.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="584">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>chivascuadradas89</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The service is great, friendly and the rooms are clean. I would recommend it to anyone I know. They are quite busy but always find a room for me. I make a monthly visit to see my husband and I have used then for a little more than a year More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r564355463-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Great spur of the moment road trip. Accommodations were fine. Did not eat breakfast. Need larger coffee cups.More</t>
   </si>
   <si>
+    <t>zach515</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r561746727-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>tragriffin1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r533782598-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Clerk tried to have us upgrade after we had made reservations and had a quote for a lower priced room. Also couldn't use reward points or get credit for the stay. Not happyMore</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r529975053-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>It's not a brand new property so there are some signs of wear.  But where it counts, cleanliness, comfort and value, it's a good place to stay.  It is literally in the middle of a RV dealership so it takes a little effort to find but well worth it.More</t>
   </si>
   <si>
+    <t>Heather W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r527837170-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Upon check in, they tried to make a copy of my debit card. To which I told them no way! Our AC in our room froze up overnight so we had no AC the 2nd day of our stay. The hair dryer wouldn't work because there was no power to the outlet. The lobby was disgustingly hot with the strong smell of curry throughout the hotel. The pool was closed by the city of alvarado, indefinitely.  It was not pleasant AT ALL!More</t>
   </si>
   <si>
+    <t>Accordio1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r525759033-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>My wife and I stayed in room 106 the night of 9/18/2017. The room is an accessible room with jacuzzi in the bedroom a bathtub in the bathroom with grab bars.  The jacuzzi does not have grab bars though.  The room has a king bed,microwave, refrigerator, and coffee maker and flat screen tv.  The bathroom has a raised toilet and has a bathtub with grab bars.  This room also connects to another room.  The stay was adequate. However there were some things that need to be addressed. 1. There is a red stain on the carpet by the step of the jacuzzi.2. There was no hair dryer 3. The sink leaked 4. The refrigerator needs to be cleaned better.Otherwise the room was big and spacious.  This property is pet friendly.  It is $10 dollars a day per pet if you tell them about the pet or $25 dollars a day per pet if you don't tell them.  Check in was fast and great.  It was adequate for a 1 night stay to get sleep.  I would return if needed.More</t>
   </si>
   <si>
+    <t>R5024NEdavidl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r522264455-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>M813XFmatthewk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r511167981-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>This is a quality hotel for a decent price, but the internet was slow and the lobby/hallways were hot and smelled funky. Also, the ice machines were all out of order except for the one down on the first floor. Nothing too bad, but there are better hotel values in better locations within 10 miles.</t>
   </si>
   <si>
+    <t>silverwingstrans15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r501902707-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>elizabethmA4235VZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r494846001-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>599brandyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r492011540-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>06/10/2017</t>
   </si>
   <si>
+    <t>P2691HTkathyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r483631283-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Q842JLjerryc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r482647833-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>05/08/2017</t>
   </si>
   <si>
+    <t>Roger S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r481964650-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>J Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r478321426-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
     <t>Everything was nice except the smell strange smell Curry I think which was not pleasant to the nose.More</t>
   </si>
   <si>
+    <t>932retam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r468671158-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Dominic Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r466532786-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -477,6 +531,9 @@
     <t>When we walked into lobby, it smelled bad. Don't what the smell was. The receptionists took long on the computer to book us in and give us our room keys. Chair in room was very dirty (looked as if someone threw up on it). Bed sheets had stains. Was so scared to sleep on bed because the uncleanliness. Never again Super8, sorry if you can't even have a clean hotel, then we won't be back.</t>
   </si>
   <si>
+    <t>motownphillie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r440997518-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -498,6 +555,9 @@
     <t>Average room with below average cleanliness. No complaints really with the size of the room, there was more than enough for my son and I but I didn't think that the dippity doo that was on the headboard of both beds. I also wasn't fond of the cigarette smell that permeated throughout the halls on all 3 floors of the hotel. The complimentary breakfast left something to be desired too. We chose to have breakfast somewhere else rather than have anything other than the toast and part of a waffle for my son. The staff were very friendly and accommodating but I don't think we'll go back to this Super 8 due to the issues with the beds. It was tough to sleep after seeing that!!More</t>
   </si>
   <si>
+    <t>frynedame</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r438619357-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -516,6 +576,9 @@
     <t>We were next door to purchase a motor home which is another story in itself as the folks at MHSRV did not advertise what the end product would be like. Totally dishonest in their presentation on line to us.  You can read my review of them on their website. We walked over from MHSRV and needed a room as we had no place to go. The clerk told us we could have a VIP room at the cost of $79.95 for the night so I told them I looked on line and you advertise $49.95 per night he said this is VIP room and much better then the other ones.  I said ok I was with my wife and wanted a nice room.  Paid and went up to the room as soon as we walked in my wife notices dead bugs on the floor and as I moved some of the furniture around found all kinds of dead bugs.  Went to open the window coverings and notices black mold growing in the corner of the window ledge.  I decided to find a maid to come and vacuum up the dead bugs.  This was done and we started to settle in.  Let me tell you this was not a VIP room.  There were no restaurants within walking distance so we called a pizza hut to deliver pizza to us.  The pizza arrived and we placed it on the small table that...We were next door to purchase a motor home which is another story in itself as the folks at MHSRV did not advertise what the end product would be like. Totally dishonest in their presentation on line to us.  You can read my review of them on their website. We walked over from MHSRV and needed a room as we had no place to go. The clerk told us we could have a VIP room at the cost of $79.95 for the night so I told them I looked on line and you advertise $49.95 per night he said this is VIP room and much better then the other ones.  I said ok I was with my wife and wanted a nice room.  Paid and went up to the room as soon as we walked in my wife notices dead bugs on the floor and as I moved some of the furniture around found all kinds of dead bugs.  Went to open the window coverings and notices black mold growing in the corner of the window ledge.  I decided to find a maid to come and vacuum up the dead bugs.  This was done and we started to settle in.  Let me tell you this was not a VIP room.  There were no restaurants within walking distance so we called a pizza hut to deliver pizza to us.  The pizza arrived and we placed it on the small table that was available and as we placed it on the table dead bugs fell from under the table.  I could go on but wont you get the drift.  Needless to say we did not get very much sleep that night.  We were glad morning came and a taxi came to pick us up to go to the airport.  I would not recommend this motel to anyone.  Dirty and nasty.  I;m sure they try but someone needs to tell the cleaning crew how to clean.  Would never stay in another Motel 6More</t>
   </si>
   <si>
+    <t>Joshua E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r432258591-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -543,6 +606,9 @@
     <t>Great place to stay very clean and breakfast was good. Hotel manager was very helpful for area info the staff also worked around my schedule to clean my room at night since I slept during the day. Would definitely stay again More</t>
   </si>
   <si>
+    <t>Edwin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r420685652-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -564,6 +630,9 @@
     <t>Super 8 in Alvarado TX was very clean&amp; professionally run.  The manager &amp; staff are very helpful &amp; courteous &amp; go out their way to make your stay a pleasure to be there.  Will definitely stay there again when in the area.More</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r419234649-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -582,6 +651,9 @@
     <t>Good value, rooms and general common areas clean. Staff friendly, very conveniently located, was there to shop for RV, located in the middle of dealership-can't get closer than that. More</t>
   </si>
   <si>
+    <t>Jannie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r418067487-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -591,6 +663,9 @@
     <t>09/13/2016</t>
   </si>
   <si>
+    <t>clines698</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r409935729-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -618,6 +693,9 @@
     <t>The whole hotel was hot including our room. There was a woman walking around half naked and my kids were with us. The food was stale and hard. Will never stay here again. Oh and there was kids running around makin a lot of noise and throwing things and seemed to belong to the guy at the front deskMore</t>
   </si>
   <si>
+    <t>Paula N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r405784941-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -636,6 +714,9 @@
     <t>Stayed at this location in March with no issues.  This time, there were numerous issues starting with check in.  The only maid service came after 5:30 pm.  She said that she was only there for the towels and trash.  The manager wanted a cash payment because he said that we had to pay for my companion because when I reserved it did not have any question for the number of occupants.  Stay in hotels for work continuously, I will not be staying here again.More</t>
   </si>
   <si>
+    <t>Linney427</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r404870435-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -666,6 +747,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>lorriel950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r399325178-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -684,6 +768,9 @@
     <t>I stayed here one night traveling back home to Corpus from Iowa and the front desk man was very polite and helpful. The room was clean  and got cold fast once i turned the ac on. The price was decent for one night. Thank you so much More</t>
   </si>
   <si>
+    <t>887ronaldk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r393224638-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -702,6 +789,9 @@
     <t>The room lights were way too dim.The fridge was unplugged.  The toilet was %75 plugged up when I got the room. Every time I took a #2 I had to plunge it. They didn't want to give me towels to clean it up. I asked about a maintenance man and was told he only comes on Wednesday!  The third time I had to plunge the toilet I plunged and I plunged and I plunged until it finally opened up. I had water everywhere. I used up the towels they gave me and some of my room towels also. I had no more trouble out of the toilet.They did not offer to change rooms or give me a discount.I will never return to Super 8 in Alvarado, Texas.More</t>
   </si>
   <si>
+    <t>4pcarroll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r382741735-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -720,6 +810,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Steve W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r375155588-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -741,6 +834,9 @@
     <t>This super 8 motel is kinda tucked away and surrounded by an rv sales lot... Thought this was kinda of strange when I first pulled up, but appreciated it later on as the stay was a quiet and safe place to stay the night.. I even came back a second time during the week to catch my flight in Dallas... Rooms were clean, bed was comfortable and clean.. Bathroom is a lil small and the only negative experience I had there was the fact that the bathroom floors are slippery when you are wearing socks... Really slippery.. But other than that, the manager was nice and accommodating and will stop by here again if I am in the area... Did not have the breakfast either morning due to early departure More</t>
   </si>
   <si>
+    <t>jcunlimited</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r374095789-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -756,6 +852,9 @@
     <t>pro --  budget, cleancon -- noisy (bad plumbing noise from upstairs and poor quality refrigerator), terrible breakfast (poor quality and bad presentation, limited choice), smelly lobby (curry smell)i did not sleep until 5 am due to the noise being generated through the plumbing and the refrigerator motor sound.... i turned off the power on refrigerator... still the plumbing sound kept me awake...</t>
   </si>
   <si>
+    <t>susanjackw61978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r368321419-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -774,6 +873,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Billy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r363851258-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -792,6 +894,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>stevent407</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r363092609-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -801,6 +906,9 @@
     <t>04/10/2016</t>
   </si>
   <si>
+    <t>JimRocca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r353626432-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -825,6 +933,9 @@
     <t>With out question this is the Best Super 8 I have ever stayed in. Over the years I have stayed at more than 25 different Super 8's nation-wide. The Super 8 in Alvarado is hands down the best.As soon as you walk in to the hotel you think, "This isn't a Super 8, is it?" Its a good looking hotel from the start. The room is upscale as well and the bed, (the main reason I'm here, right?), is practically brand new. Upon check out I asked about that bed and was told, that as a personal practice they buy new mattresses on a regular basis to make sure their guest are impressed enough to come back. Well, guess what, I'll definitely coming back. The breakfast is a hot one, eggs, beacon, etc. Rare for a Super 8. If you are traveling on I-35 going south (about 6 mile) of Fort Worth you should spend the night there. Top tier hotel at a reasonable price. I'm not associated with the Super 8 chain or the folks that run this facility and I've never written a recommendation for any hotel before this one.More</t>
   </si>
   <si>
+    <t>alanizd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r351927327-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -852,6 +963,9 @@
     <t>Hotel was nice.  Staff was super friendly.  Only 2 small complaints...  No conditioner.  Would have prefered shamppo with conditioner to none at all.  I know that is silly but you would have to know my hair to understand..  The bed was really hard.  I didn't like that..  Over all this place was really clean amd well kept...More</t>
   </si>
   <si>
+    <t>lorihE6014UT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r350824923-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -867,6 +981,9 @@
     <t>Responded February 28, 2016</t>
   </si>
   <si>
+    <t>Robert T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r336533673-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1002,9 @@
     <t>Responded January 4, 2016</t>
   </si>
   <si>
+    <t>Paul B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r334122953-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1029,9 @@
     <t>I've stayed in several Wyndham hotel/motel over the years and I'm a member of Choice, Marriott, Best Western and LA Quinta. I must admit that this particular hotel rates 3 to 4 stars with all of them, large clean rooms, friendly and helpful staff close to metro areas (25 to 30 Mikes from Dallas) without the traffic hassle.More</t>
   </si>
   <si>
+    <t>bobbysjohns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r332182903-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1056,9 @@
     <t>I've stayed at almost every hotel in and surrounding Johnson County and I have to say hands down that Chen and his crew have a way of making your stay the utmost down to earth, not to mention most comfortable stay in town at aVery reasonable yet competative price.  The main thing is they put name with a face and do not forget ya even when ya haven't been there in a while. More</t>
   </si>
   <si>
+    <t>Pamela S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r314795692-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1086,9 @@
     <t>Madison is busy and the convenience to and from the capitol is easy and direct.  The staff has taken good care all three of my trips and I will continue to use Super 8More</t>
   </si>
   <si>
+    <t>Adriana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r312403761-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1113,9 @@
     <t>At first I had made my reservation for 2 adults 2 people, but my mom ended coming along. so when the front desk guy saw that, he immediately required us to pay extra, that was fair. But at the time of check out he wanted to charge me for an additional person that did not exist, he kept insisting till he really ticked me off. I then talked to another lady who was very nice and apologetic. Unfortunately I will not be returning, and its very unfortunate that the good people have to pay for those that one that seems very greedy and wanting to overcharge for everything.More</t>
   </si>
   <si>
+    <t>R7139OLruthh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r311433992-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1134,9 @@
     <t>We have stayed at this location several time in the past several years.  The condition and cleanliness was a real disappointment this time.  We will not be staying there on our next trip to Overland Park.More</t>
   </si>
   <si>
+    <t>992susannep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r282739421-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1155,9 @@
     <t>Responded July 2, 2015</t>
   </si>
   <si>
+    <t>902tinar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r280716553-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1176,9 @@
     <t>Check in took approx. 30 minutes, lady customer service was nice and tried to help but short elderly man came out, was miffed at rooms booked using Go Fast program saying rate too low. Lady had to explain the program to him.  Came in from out of town to celebrate birthday and was charged $20 extra PER ROOM to check in 1.5 hours early and the rooms were ready and sitting there.  Roach on daughter's door which she exterminated.  Check out fast, younger male was pleasant.More</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r276068794-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1200,9 @@
     <t>Our room was very damp. Nothing felt dry. Toilet made very loud sound when flushed. Sounded like a boat whistle. Bathtub didn't have enough non slip strips so was very slippery. Mentioned these issues at check out. The gentleman said he made note of them. Internet was very week. More</t>
   </si>
   <si>
+    <t>James O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r270857039-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1218,9 @@
     <t>This is a nice place relative to most I've stayed at. The service is good, the room was clean and very nice. The area is very safe. I would prefer a hotel like this at every stop and that's why I give a high rating. They have a fitness room although they need to fix the treadmill.</t>
   </si>
   <si>
+    <t>Jeff P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r269900358-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1233,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Jim J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r267101390-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1254,9 @@
     <t>The motel itself was adequate; the breakfast options were limited but there was enough to get you ready for the day. We were in a group that had reserved 5 rooms for the weekend of April 17-19, 2015. They didn't have enough towels in some of the rooms, and when we asked for more, they were out (maybe they hadn't done the laundry yet). The issue I had with this motel is when we checked in, the front desk tried to charge us twice the rate we were quoted online! We had reserved 4 of the rooms online, for a rate of about $65 a day, but at check-in, the front desk said the rate was about $130. After several minutes of "bargaining", we did get the rooms for the $65 rate, but we observed the front desk trying this same strategy on other customers as well. VERY unprofessional, in my opinion!More</t>
   </si>
   <si>
+    <t>Victoria O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r258482499-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1269,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>travelingpaul2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r235966435-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1284,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>egstd97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r235077612-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1302,9 @@
     <t>Service was poor, although there were not many people staying, I was put on the third floor, breakfast was a joke, the only hot thing was the gravy for biscuits &amp; gravy, the bed was rock hard</t>
   </si>
   <si>
+    <t>Ronald E. Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r225167340-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1326,9 @@
     <t>08/23/2014</t>
   </si>
   <si>
+    <t>cadburysbarn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r221606771-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1344,9 @@
     <t>They have inside corridoors which is perfect for me. The rooms were pretty nice (I stayed in a king suite) I had plenty of room, it was very clean and the furniture was also nice. The breakfast was just OK, not a lot of selection, but it was all fresh. I would stay at this Super 8 again. The only draw backs were that as usually not enough towels and they had no kleenx in the room.</t>
   </si>
   <si>
+    <t>Kevin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r211288659-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1359,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Morris W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r210481989-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1380,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Harvey M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r188916382-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1401,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Kelli10440</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r181428147-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1416,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>DonnaJ43059</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r180054901-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1434,9 @@
     <t>Price was good, location was perfect, right next door to Motor Home Specialist which was our destination, but this hotel needs to update their mattresses!!  The Staff was nice but the bed was terrible.  Felt like the mattress should have been changed years ago!  It was clean and everything worked.</t>
   </si>
   <si>
+    <t>Gloria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r178346995-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1449,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Frank O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r168706535-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1464,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Kathleen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r167687705-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1485,9 @@
     <t>07/10/2013</t>
   </si>
   <si>
+    <t>Dwayne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r162214157-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1506,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>LarAndGin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r160940855-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1527,9 @@
     <t>Hard bed and flat pillows overshadowed the spacious, clean room.Picked this hotel because of a good price on Hotels.com while visiting family in the area.  Seeing it was easy, getting to it was a little harder.  Wednesday night, not very busy. Lawn needed mowing. Greeted at the front by the manager Chen and a very strong smell of curry.  Check in was fast and easy, lobby was clean, room was easy to find. clean and free of odors.  King size bed and a spacious room with plenty of space to maneuver about. TV was a 3:4 aspect so most of the channels were letterboxed.  Did not use the shower.  Bed was very stiff to the point of being too hard - and I camp a lot.  Pillows very flat and I really could have used another one.  I ended up having to fold mine in half to make a satisfactory size.  Did not try the shower or breakfast.Don't know if would return to this property or not.More</t>
   </si>
   <si>
+    <t>Lynn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r157977725-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1542,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Cheryl F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r154310025-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1557,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Lonnie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r153706096-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1578,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Corey M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r145354255-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1602,9 @@
     <t>I wanted to give this place four dots but I just could not. I am an extensive business traveler and I know of what I speak. The most important part of a hotel stay, aside from cleanliness, is the comfort of the bed and the sleep quality. The mattresses were of such a poor quality and so uncomfortable I was actually in pain when I woke up. My back and my hip bones ached. It was really as though I were sleeping on a box springs and not a mattress at all. The mattress creaked when I sat on it and I could feel every spring.  These were the thinnest mattresses I have ever seen.  Even the pillows were thin and offered no real head and neck support even when folded over and there were only two pillows on the bed. Three is a minimum and it should be four to five. Management really went Chinese cheap o on these things. Everything else about this hotel was nice. Its a newer property so everything about it is in good shape. Ample parking, restaurants nearby, free breakfast, and very nice hotel staff. The price was also very good. But all of that does not matter if you leave more tired than when you arrived. My message to management is to dish out the money and get some high quality mattresses and pillows. I am telling you this will come back to...I wanted to give this place four dots but I just could not. I am an extensive business traveler and I know of what I speak. The most important part of a hotel stay, aside from cleanliness, is the comfort of the bed and the sleep quality. The mattresses were of such a poor quality and so uncomfortable I was actually in pain when I woke up. My back and my hip bones ached. It was really as though I were sleeping on a box springs and not a mattress at all. The mattress creaked when I sat on it and I could feel every spring.  These were the thinnest mattresses I have ever seen.  Even the pillows were thin and offered no real head and neck support even when folded over and there were only two pillows on the bed. Three is a minimum and it should be four to five. Management really went Chinese cheap o on these things. Everything else about this hotel was nice. Its a newer property so everything about it is in good shape. Ample parking, restaurants nearby, free breakfast, and very nice hotel staff. The price was also very good. But all of that does not matter if you leave more tired than when you arrived. My message to management is to dish out the money and get some high quality mattresses and pillows. I am telling you this will come back to bite you if you do not. My message to travelers is to pass and stay somewhere else until they get their act together.More</t>
   </si>
   <si>
+    <t>restorerolls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r91108548-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1632,9 @@
     <t>I travel for a living. i stay in over 40 hotels a year. from 1 star to 4 stars. this super 8 is flawless. i cannot find one thing that was wrong. i just wanted to see one thing wrong to feel normal! the staff, cleanliness, i mean everything is flawless! towels are generous size. shower sprays a correct amount of water. not even one hole in the shower head is clogged! yes! i looked! let's look under the mattress! it's perfectly clean! lets take off the pillow covers! perfect. no stains! let's test all the wall outlets plug tension. all tight! you dont need to worry about the generous wall outlets being loose when you're charging your cell or your laptop. btw. wi-fi is free and fast. i tried the wi-fi in the morning and in the evening. still lighting fast at all hours. there is also a public computer for guest to use in the Free breakfast room. this is much better value than any 4 star hotel i stayed at. to name them, Hyatt regency, Hilton, Marriot and rennaisance. and Im saving over $100 a night and im getting 4 star quality!  those other 4 stars charge $9.95-$12.95 per day for internet. there is no charge at this super 8 or any Super 8! If all Super 8 were like this. all hotels will go out of business. if your in the fort worth area, i reccommend...I travel for a living. i stay in over 40 hotels a year. from 1 star to 4 stars. this super 8 is flawless. i cannot find one thing that was wrong. i just wanted to see one thing wrong to feel normal! the staff, cleanliness, i mean everything is flawless! towels are generous size. shower sprays a correct amount of water. not even one hole in the shower head is clogged! yes! i looked! let's look under the mattress! it's perfectly clean! lets take off the pillow covers! perfect. no stains! let's test all the wall outlets plug tension. all tight! you dont need to worry about the generous wall outlets being loose when you're charging your cell or your laptop. btw. wi-fi is free and fast. i tried the wi-fi in the morning and in the evening. still lighting fast at all hours. there is also a public computer for guest to use in the Free breakfast room. this is much better value than any 4 star hotel i stayed at. to name them, Hyatt regency, Hilton, Marriot and rennaisance. and Im saving over $100 a night and im getting 4 star quality!  those other 4 stars charge $9.95-$12.95 per day for internet. there is no charge at this super 8 or any Super 8! If all Super 8 were like this. all hotels will go out of business. if your in the fort worth area, i reccommend your drive 17 miles south and stay at this Super 8.it's on I-35w. and the girl working in the evening was super cute! and for those woman who think they are clean. you come to this super 8 and take a look. I dont think your own place is as clean as this super 8!More</t>
   </si>
   <si>
+    <t>buffer4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r76747092-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1653,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>Sonne4dich1961</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r71170115-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1674,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>LittleRockArkie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r49486560-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1695,9 @@
     <t>November 2009</t>
   </si>
   <si>
+    <t>OklahomaDian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r40070847-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +1716,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>hope1njc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r40009450-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1506,6 +1731,9 @@
     <t>My boyfriend and I came here to get away for a night. The one thing we wanted was to be able to sit in a hot tub for a while and relax. We called beforehand to make sure one would be available and then made a reservation. When we went to the pool area we found that the hot tub was green and slimy. Another guest had mentioned that she complained about it so we mentioned it to the front desk. The next morning it still had not been cleaned. The bed was in terrible shape. I woke up stiff and with a terrible backache.</t>
   </si>
   <si>
+    <t>jpaffie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r14084512-Super_8_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1522,6 +1750,9 @@
   </si>
   <si>
     <t>March 2008</t>
+  </si>
+  <si>
+    <t>faith2k5</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d614380-r14072391-Super_8_Alvarado-Alvarado_Texas.html</t>
@@ -2041,43 +2272,47 @@
       <c r="A2" t="n">
         <v>54550</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2089,56 +2324,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54550</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2160,54 +2399,58 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54550</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2229,56 +2472,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54550</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2300,56 +2547,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54550</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2367,56 +2618,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54550</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>17895</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2438,56 +2693,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54550</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178348</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2501,50 +2760,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54550</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2568,50 +2831,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54550</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178350</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2635,48 +2902,52 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54550</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178351</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2698,54 +2969,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54550</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178352</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2767,54 +3042,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54550</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178353</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2836,56 +3115,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54550</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178354</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2909,35 +3192,39 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54550</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178355</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2945,10 +3232,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2969,51 +3256,52 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54550</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>8082</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3027,50 +3315,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54550</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178356</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>141</v>
       </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>128</v>
-      </c>
       <c r="O17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3092,54 +3384,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54550</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178357</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3161,56 +3457,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54550</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3234,50 +3534,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54550</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178359</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3301,50 +3605,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54550</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178360</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3364,50 +3672,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54550</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>40161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3419,56 +3731,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54550</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3490,56 +3806,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X23" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54550</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3561,54 +3881,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X24" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54550</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178362</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3630,56 +3954,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X25" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54550</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3701,56 +4029,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54550</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>18353</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3772,56 +4104,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="X27" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54550</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178364</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3843,54 +4179,58 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X28" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54550</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3912,56 +4252,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X29" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54550</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178365</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3983,56 +4327,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X30" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="Y30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54550</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178366</v>
+      </c>
+      <c r="C31" t="s">
+        <v>250</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -4056,50 +4404,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54550</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178367</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4117,50 +4469,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54550</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>10664</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4174,50 +4530,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54550</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178368</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4235,50 +4595,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54550</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178369</v>
+      </c>
+      <c r="C35" t="s">
+        <v>278</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4298,50 +4662,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54550</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O36" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4359,35 +4727,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54550</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178370</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4395,10 +4767,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4419,51 +4791,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54550</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178371</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4475,56 +4848,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="X38" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="Y38" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54550</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178372</v>
+      </c>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4546,54 +4923,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="X39" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54550</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178373</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4615,54 +4996,58 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="X40" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54550</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C41" t="s">
+        <v>321</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4684,56 +5069,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="X41" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Y41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54550</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>4206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>328</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4745,56 +5134,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="X42" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="Y42" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54550</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178374</v>
+      </c>
+      <c r="C43" t="s">
+        <v>337</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="J43" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4806,56 +5199,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="X43" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="Y43" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54550</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>3204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>346</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="O44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4877,56 +5274,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="X44" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54550</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178375</v>
+      </c>
+      <c r="C45" t="s">
+        <v>356</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="J45" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4944,56 +5345,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="X45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="Y45" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54550</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178376</v>
+      </c>
+      <c r="C46" t="s">
+        <v>365</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="K46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5015,54 +5420,58 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="X46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="Y46" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54550</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178377</v>
+      </c>
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5084,56 +5493,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="X47" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="Y47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54550</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178378</v>
+      </c>
+      <c r="C48" t="s">
+        <v>379</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="J48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="O48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5155,56 +5568,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="X48" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="Y48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54550</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C49" t="s">
+        <v>386</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="J49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5226,56 +5643,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="X49" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54550</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5293,35 +5714,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54550</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>14903</v>
+      </c>
+      <c r="C51" t="s">
+        <v>400</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="J51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5329,10 +5754,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5353,51 +5778,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54550</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>7541</v>
+      </c>
+      <c r="C52" t="s">
+        <v>405</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="J52" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="K52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5417,35 +5843,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54550</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178379</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5453,10 +5883,10 @@
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="O53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5477,36 +5907,37 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54550</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178380</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5514,10 +5945,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5538,51 +5969,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54550</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178381</v>
+      </c>
+      <c r="C55" t="s">
+        <v>422</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="J55" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5606,35 +6038,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54550</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178382</v>
+      </c>
+      <c r="C56" t="s">
+        <v>428</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5642,10 +6078,10 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5666,36 +6102,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54550</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C57" t="s">
+        <v>321</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="J57" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5703,10 +6140,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="O57" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5727,51 +6164,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54550</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178383</v>
+      </c>
+      <c r="C58" t="s">
+        <v>436</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="J58" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="K58" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -5789,35 +6227,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54550</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>19351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>442</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="J59" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5825,10 +6267,10 @@
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5849,51 +6291,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>54550</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>86221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>447</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="J60" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="O60" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5917,50 +6360,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>54550</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>19720</v>
+      </c>
+      <c r="C61" t="s">
+        <v>454</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="J61" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5984,35 +6431,39 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>54550</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178384</v>
+      </c>
+      <c r="C62" t="s">
+        <v>461</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="J62" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6020,10 +6471,10 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6044,51 +6495,52 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54550</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178385</v>
+      </c>
+      <c r="C63" t="s">
+        <v>466</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="J63" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="K63" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="O63" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6112,35 +6564,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>54550</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>9961</v>
+      </c>
+      <c r="C64" t="s">
+        <v>472</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="J64" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6148,10 +6604,10 @@
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="O64" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6172,36 +6628,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>54550</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>36555</v>
+      </c>
+      <c r="C65" t="s">
+        <v>477</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="J65" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6209,10 +6666,10 @@
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6233,49 +6690,50 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>54550</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>51222</v>
+      </c>
+      <c r="C66" t="s">
+        <v>482</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="J66" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6299,35 +6757,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54550</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C67" t="s">
+        <v>321</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="J67" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6335,10 +6797,10 @@
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="O67" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6359,51 +6821,52 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>54550</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>178386</v>
+      </c>
+      <c r="C68" t="s">
+        <v>489</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="J68" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="K68" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="L68" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6423,50 +6886,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>54550</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178387</v>
+      </c>
+      <c r="C69" t="s">
+        <v>496</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="J69" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="K69" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6490,35 +6957,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>54550</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C70" t="s">
+        <v>503</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="J70" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6526,10 +6997,10 @@
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="O70" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6550,36 +7021,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>54550</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>29477</v>
+      </c>
+      <c r="C71" t="s">
+        <v>508</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="J71" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6587,10 +7059,10 @@
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="O71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6611,51 +7083,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>54550</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>178388</v>
+      </c>
+      <c r="C72" t="s">
+        <v>513</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="J72" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="K72" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="L72" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6679,50 +7152,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>54550</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>17348</v>
+      </c>
+      <c r="C73" t="s">
+        <v>520</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="J73" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="K73" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="L73" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6746,50 +7223,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>54550</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178389</v>
+      </c>
+      <c r="C74" t="s">
+        <v>528</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="J74" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="K74" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="L74" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6811,56 +7292,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="X74" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="Y74" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54550</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>178390</v>
+      </c>
+      <c r="C75" t="s">
+        <v>538</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="J75" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="K75" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="L75" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6884,50 +7369,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>54550</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>178391</v>
+      </c>
+      <c r="C76" t="s">
+        <v>545</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="J76" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="K76" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="L76" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="O76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -6951,50 +7440,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>54550</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>178392</v>
+      </c>
+      <c r="C77" t="s">
+        <v>552</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="J77" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="K77" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="L77" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="O77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7018,50 +7511,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>54550</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>178393</v>
+      </c>
+      <c r="C78" t="s">
+        <v>559</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="J78" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="K78" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="L78" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="O78" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7085,50 +7582,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>54550</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>178394</v>
+      </c>
+      <c r="C79" t="s">
+        <v>566</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="J79" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="K79" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="L79" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="O79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7152,50 +7653,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>54550</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>178395</v>
+      </c>
+      <c r="C80" t="s">
+        <v>571</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="J80" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="K80" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="L80" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7219,50 +7724,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>54550</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>178396</v>
+      </c>
+      <c r="C81" t="s">
+        <v>578</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>503</v>
+        <v>580</v>
       </c>
       <c r="J81" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="K81" t="s">
-        <v>504</v>
+        <v>581</v>
       </c>
       <c r="L81" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="O81" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7286,7 +7795,7 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
